--- a/hasil/2023_01_lipa_20.xlsx
+++ b/hasil/2023_01_lipa_20.xlsx
@@ -58,13 +58,13 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 04 Juli 2023</t>
+    <t>Ternate , 17 Juli 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
   </si>
   <si>
-    <t>Panitera,</t>
+    <t xml:space="preserve">Panitera, </t>
   </si>
   <si>
     <t>Drs. Djabir Sasole, M.H</t>
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -225,10 +225,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -253,8 +249,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>
@@ -578,31 +574,31 @@
       <c r="A2" s="1"/>
     </row>
     <row r="4" spans="1:5" customHeight="1" ht="15.75">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" customHeight="1" ht="15.75">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" customHeight="1" ht="15.75">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" customHeight="1" ht="15.75">
       <c r="A7" s="3"/>
@@ -621,22 +617,22 @@
       </c>
     </row>
     <row r="9" spans="1:5" customHeight="1" ht="23.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" customHeight="1" ht="15.75">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -647,9 +643,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" customHeight="1" ht="15.75">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
@@ -658,122 +654,122 @@
       </c>
     </row>
     <row r="12" spans="1:5" customHeight="1" ht="15.75">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>4</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" customHeight="1" ht="47.25">
-      <c r="A13" s="7">
+      <c r="A13" s="13">
         <v>1</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="13">
         <v>59</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="13">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="13">
         <v>0</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" customHeight="1" ht="15.75">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" customHeight="1" ht="15.75">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" customHeight="1" ht="20">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" customHeight="1" ht="20">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" customHeight="1" ht="15.75">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" customHeight="1" ht="15.75">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" customHeight="1" ht="15.75">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" customHeight="1" ht="15.75">
-      <c r="A21" s="13"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" customHeight="1" ht="20">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" customHeight="1" ht="20">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
         <v>19</v>
       </c>
     </row>

--- a/hasil/2023_01_lipa_20.xlsx
+++ b/hasil/2023_01_lipa_20.xlsx
@@ -58,7 +58,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 17 Juli 2023</t>
+    <t>Ternate , 02 Agustus 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_20.xlsx
+++ b/hasil/2023_01_lipa_20.xlsx
@@ -58,7 +58,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 02 Agustus 2023</t>
+    <t>Ternate , 07 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
